--- a/DragAndDrop/Assets/06.Data/Excel/Stage2/Stage2_Dynamite_excel.xlsx
+++ b/DragAndDrop/Assets/06.Data/Excel/Stage2/Stage2_Dynamite_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.junheeStudy\Team_Project\idle\DragAndDrop\Assets\06.Data\Excel\Stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDCB9E6-8EB7-4109-B281-5B4E919C1F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AB4833-C8A1-427E-A67D-2705A32A93B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63912014-BF4A-4F18-852E-8D74DAEBE5CC}"/>
+    <workbookView xWindow="30585" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{63912014-BF4A-4F18-852E-8D74DAEBE5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -480,7 +480,7 @@
         <v>46.8</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>48.3</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>49.65</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>51.05</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>52.5</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>51.4</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>

--- a/DragAndDrop/Assets/06.Data/Excel/Stage2/Stage2_Dynamite_excel.xlsx
+++ b/DragAndDrop/Assets/06.Data/Excel/Stage2/Stage2_Dynamite_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.junheeStudy\Team_Project\idle\DragAndDrop\Assets\06.Data\Excel\Stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AB4833-C8A1-427E-A67D-2705A32A93B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB49304-0A81-4F3D-9FFB-55BE27822BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30585" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{63912014-BF4A-4F18-852E-8D74DAEBE5CC}"/>
+    <workbookView xWindow="7050" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{63912014-BF4A-4F18-852E-8D74DAEBE5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2C8B6B-81C9-4B21-8DB2-E0724AABC855}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -697,7 +697,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>55.8</v>
+        <v>55.75</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
